--- a/Bases/3.9.xlsx
+++ b/Bases/3.9.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26306"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,21 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -34,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,10 +92,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,17 +363,17 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>9.5138569999999998</v>
       </c>
